--- a/Result/check3/2025-02-21.xlsx
+++ b/Result/check3/2025-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1"/>
+  <dimension ref="A1:AM1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,200 +446,185 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>_quote</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>成交股數</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rt_量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>箱型力量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>量能</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rt_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>盤後量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>成交量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>淨值倍率</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_quote</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>價能</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>MA5_%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>均價_%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MACD_%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MACD-SL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LevelArea</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trend_change</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_enddate</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>淨值倍率</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>盤後量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>成交量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>量比</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>rt_price</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>LevelArea</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>over_%</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>均價_%</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_%</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MACD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MACD-SL</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>價能O</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>成交股數</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>rt_量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量o</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>遠交易量o</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Trend_change</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_date</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_enddate</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>成交金額</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>每股淨值(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>

--- a/Result/check3/2025-02-21.xlsx
+++ b/Result/check3/2025-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>

--- a/Result/check3/2025-02-21.xlsx
+++ b/Result/check3/2025-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,162 +476,177 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>短增量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>短增level</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-02-21.xlsx
+++ b/Result/check3/2025-02-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AS19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,162 +491,4258 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>diff_quote</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量o</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>遠交易量o</t>
+          <t>短交易量</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>diff_quote</t>
+          <t>遠交易量</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>MA_break</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8422</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-0.27</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.171</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>185.5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>-1.29</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>66527349.0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>可寧衛</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>綠能環保</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>18.12</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>21246</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>污染及棄置場址整治工程35.41%、掩埋33.95%、再生紙業12.79%、發電6.82%、固化服務6.74%、清理運輸服務2.03%、預拌混凝土1.99%、其他0.28% (2024年)</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>可寧衛-綠能環保-上市</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>綠能環保右上</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>62.07</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>6877</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-0.49</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>4811</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-1.66</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>10425.0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>鏵友益</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>82.4</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>35.07</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>4387</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>智能自動化設備44.28%、OEM加熱設備26.28%、AOI機械視覺檢測設備24.40%、其他5.04% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>鏵友益-其他電子業-上櫃</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6667</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>-1.14</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>-14.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>-14</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>-41987.0</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>信紘科</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>其他電子業</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>22.7</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>35.07</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>10159</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>高科技產業製程之廠務供應系86.05%、綠色製程解決方案10.27%、其他3.68% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>信紘科-其他電子業-上櫃</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>其他電子業右上</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>40.61</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1303.669</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>111.5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1818</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>-2.64</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>-8.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>-8</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>155178208.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>台表科</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>85.9</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>33187</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>製造92.34%、其他7.66% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>台表科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29135.0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>53.99</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>66.3</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>27.14</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>34749</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>4250031.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>信立</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>7174</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>信立-塑膠工業-上櫃</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>塑膠工業右上</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3563</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>301.404</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1732</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-3.18</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>330518544.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>牧德</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>101.63</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>85.9</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>25092</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>光學檢測機84.39%、勞務15.61% (2024年)</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>牧德-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3266</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>137.188</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-3.26</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-6</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>1113474.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>昇陽</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>6483</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>房地銷售91.19%、營建工程7.66%、租賃1.14% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>昇陽-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>建材營造平</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2612.0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>86.4</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7092</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-2.24</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>623764.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>威剛</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>30596</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>動態隨機存取記憶體產品(DRAM47.54%、NandFlash產品43.20%、其他9.26% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>威剛-半導體業-上櫃</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>半導體業平</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>56.66</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2852</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1795.886</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>19.60</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>8.4</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>99446402.0</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>第一保</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>6.4</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>8960</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>簽單保費114.65%、再保險保費5.61%、再保佣金3.58%、利息收入2.42%、透過損益按公允價值衡量之金1.39%、透過其他綜合損益按公允價值1.16%、投資性不動產0.75%、手續費0.35%、投資兌換收益0.24%、兌換利益 -非投資0.15%、預期信用減損損失及迴轉利益0.10%、其他業務 -其他0.03% (2024年)</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>第一保-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2838</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1649.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>15.6</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>8.5</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1532</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>33219799.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>聯邦銀</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>69054</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>利息淨收益41.75%、透過損益按公允價值衡量之金27.93%、手續費淨收益19.69%、租賃11.14%、其他利息以外淨收益2.93%、採權益法認列之投資收益2.44%、透過其他綜合損益按公允價值2.05%、證券經紀1.96% (2024年)</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>聯邦銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2832</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>313.527</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>8216882.0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>台產</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>12460</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>簽單保費120.89%、再保險保費6.86%、再保佣金4.57%、利息收入3.63%、透過其他綜合損益按公允價值2.88%、投資性不動產1.66%、投資兌換收益1.35%、手續費0.89%、權益法投資收益-關聯和合營公0.89%、其他營業收入0.26%、透過損益按公允價值衡量之金0.11% (2024年)</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>台產-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>33.88</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4107.425</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>43.25</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>37186</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-5.06</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>341646899.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>銘旺科</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>85.9</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>5393</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>光學面板96.69%、其他3.31% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>銘旺科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2409</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17150.677</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>15.1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>62175</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>785847353.0</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>友達</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>85.9</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>115402</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>薄膜電晶體液晶顯示器(TFT-LC85.44%、其他14.56% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>友達-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>光電業右下</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>592.763</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>18.85</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2230</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>-20601487.0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>春源</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>42.14</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>13601</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>鋼板43.69%、工程39.40%、特殊鋼材5.39%、特殊鋼帶板5.22%、矽鋼材3.60%、倉儲設備1.80%、加工業務0.65%、型鋼0.25% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>春源-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右上</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1451</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>83.994</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>-4.05</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>-3.0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2025-02-07</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>2591249.0</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>年興</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>紡織纖維</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>18.81</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>4549</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>牛仔服飾47.91%、牛仔布44.12%、環錠紗7.97% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>年興-紡織纖維-上市</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>紡織纖維右上</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1114.068</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2662</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>-3.14</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>14859312.0</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>福懋</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>紡織纖維</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>63.99</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>32177</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>聚胺/聚酯布40.62%、油品39.49%、聚胺/聚酯簾布13.66%、特織布3.76%、紗支1.34%、包裝材0.97%、招商0.14%、佣金0.02%、土地開發0.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>福懋-紡織纖維-上市</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>紡織纖維右下</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1378.017</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>20.1</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>865</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>-1.16</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>-4</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>39347786.0</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>泰山</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>食品工業</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>10750</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>油脂廠57.37%、食品廠35.88%、勞務3.46%、飼料廠3.18%、租賃0.11% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>泰山-食品工業-上市</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>食品工業平</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>26.34</t>
+        </is>
+      </c>
+      <c r="AR18" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1102</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3583.062</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>13639</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>-12.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>-12</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>242599360.0</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>亞泥</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>水泥工業</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>159950</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>水泥及熟料100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>亞泥-水泥工業-上市</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>水泥工業右上</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
